--- a/data/trans_dic/P22$concerEmp-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerEmp-Dificultad-trans_dic.xlsx
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003094631334245907</v>
+        <v>0.003100844969812376</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002824538045779561</v>
+        <v>0.00302396984816362</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
@@ -720,26 +720,26 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.001269500038278111</v>
+        <v>0.001271357243224601</v>
       </c>
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.001118080310133618</v>
+        <v>0.00111058998871332</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.002790045703223404</v>
+        <v>0.002656237739593995</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.001378207033891733</v>
+        <v>0.0013263817402527</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0003693451324427238</v>
+        <v>0.0003697192271495711</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.001636384695303934</v>
+        <v>0.001638569118100761</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01800888133739709</v>
+        <v>0.01820281432723651</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01536831495090534</v>
+        <v>0.01582379777345581</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.00439960357880638</v>
+        <v>0.005234711386450774</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0197255721257272</v>
+        <v>0.02132592472600734</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01066806594047198</v>
+        <v>0.01089522628833974</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.005324861554430156</v>
+        <v>0.005205624242082132</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.009711640116612063</v>
+        <v>0.009795414865633586</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01100944033186705</v>
+        <v>0.01133925681211455</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.007818609612175268</v>
+        <v>0.007535311795750588</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.003327979590345754</v>
+        <v>0.003216215963504966</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01073823872331645</v>
+        <v>0.01020769101818007</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.001145952592792247</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.008031152576584537</v>
+        <v>0.008031152576584535</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.003125249161711311</v>
@@ -817,7 +817,7 @@
         <v>0.006664040229530624</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.005466519306487151</v>
+        <v>0.00546651930648715</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.01538795348436803</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01884503016262414</v>
+        <v>0.01832291956135675</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002960130636799958</v>
+        <v>0.003003480412916336</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003385268229546939</v>
+        <v>0.003332277058898845</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0009133388912894005</v>
+        <v>3.152936647602748e-05</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0009469633179431983</v>
+        <v>0.0009508065266894245</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.002760976157059016</v>
+        <v>0.002865859379769113</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.002928711176502748</v>
+        <v>0.002571488346157626</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01076352872119095</v>
+        <v>0.01046226206552337</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.002826711617506111</v>
+        <v>0.002416826505755836</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.001985186569448886</v>
+        <v>0.001980119964395645</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.00406969858457194</v>
+        <v>0.003905930721428165</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03870523964775547</v>
+        <v>0.03854608673604066</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0142118520259157</v>
+        <v>0.01378372112277803</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.006225588509604982</v>
+        <v>0.006282192875797887</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01648896851381216</v>
+        <v>0.01592469494314837</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.008126698136100993</v>
+        <v>0.008134341419984313</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.008850690475605093</v>
+        <v>0.009058990642089931</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0133560207082745</v>
+        <v>0.01335997481796985</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.009628716841030368</v>
+        <v>0.009937617912772227</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02204927482481623</v>
+        <v>0.0218601726558199</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.009149418243362155</v>
+        <v>0.008903756541233458</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.007987973781853602</v>
+        <v>0.007702228219530498</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01063366124853865</v>
+        <v>0.0106887378645694</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01270790655206651</v>
+        <v>0.01175883995403215</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01097406841752503</v>
+        <v>0.01130242443242471</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.005005392838985736</v>
+        <v>0.005273112039129847</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.007010226296393457</v>
+        <v>0.007426389652216089</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.001989194259822731</v>
+        <v>0.001918875738411149</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.003309650298485736</v>
+        <v>0.003341630342278747</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.001166506248521983</v>
+        <v>0.001163656900882211</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.003414840631422417</v>
+        <v>0.003618701183067494</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.008415780037465301</v>
+        <v>0.008343468799605885</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.008253530394774954</v>
+        <v>0.00826576036444795</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.003957859905709237</v>
+        <v>0.004364737516321122</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.006581323400503044</v>
+        <v>0.006525021392757081</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02931266357760015</v>
+        <v>0.02792793792195046</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02889537258068534</v>
+        <v>0.0310859155989889</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02442154584479619</v>
+        <v>0.0244836624417984</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02482996303148983</v>
+        <v>0.02503543119859228</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01225817022246764</v>
+        <v>0.01150899434437575</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01495475842450905</v>
+        <v>0.01494674550344336</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01184722140714843</v>
+        <v>0.01111505460601946</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01212410809357646</v>
+        <v>0.01177562547601195</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01851552642188018</v>
+        <v>0.01850307925378921</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01915326260344961</v>
+        <v>0.01901301651154811</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01482037238572463</v>
+        <v>0.0151543192380682</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01643098473287044</v>
+        <v>0.01631055991258277</v>
       </c>
     </row>
     <row r="13">
@@ -1112,38 +1112,38 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.023151287551575</v>
+        <v>0.02355109303240755</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005925292857258972</v>
+        <v>0.005830620715134133</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004998060054471861</v>
+        <v>0.004958370327814345</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01569554385748316</v>
+        <v>0.01639486367957348</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.00570264135523277</v>
+        <v>0.005735528563843139</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.002121909968570778</v>
+        <v>0.002110818240737364</v>
       </c>
       <c r="I14" s="5" t="inlineStr"/>
       <c r="J14" s="5" t="n">
-        <v>0.004523239977337905</v>
+        <v>0.00429178872676968</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01774764741404677</v>
+        <v>0.01853329309821309</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.005253922805538081</v>
+        <v>0.005274499415889098</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.002713473826630249</v>
+        <v>0.002849144786407331</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01170476237451128</v>
+        <v>0.01210265053014644</v>
       </c>
     </row>
     <row r="15">
@@ -1154,38 +1154,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06336428137525274</v>
+        <v>0.0615833851566286</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03552067628563903</v>
+        <v>0.03526884913490638</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03022494029671795</v>
+        <v>0.02939012326079711</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03838081768758175</v>
+        <v>0.03857632210898582</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03300673401906323</v>
+        <v>0.03539239146654829</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01739184226348641</v>
+        <v>0.0173624958374904</v>
       </c>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="n">
-        <v>0.01803033611634243</v>
+        <v>0.01729514291593365</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04369628194676783</v>
+        <v>0.04311998750840196</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02070627830736807</v>
+        <v>0.02051776913860511</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01542179912342697</v>
+        <v>0.01567936572492633</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02427379554730391</v>
+        <v>0.02536846024078768</v>
       </c>
     </row>
     <row r="16">
@@ -1221,7 +1221,7 @@
         <v>0.003323475663988489</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.006411550169621036</v>
+        <v>0.006411550169621037</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.01400461664001235</v>
@@ -1244,40 +1244,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01762498404957433</v>
+        <v>0.01765890010639058</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.008111131664997023</v>
+        <v>0.007958994646343285</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003180497270028559</v>
+        <v>0.003405001273505077</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0104839432452792</v>
+        <v>0.01039274200529409</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.003295126570118242</v>
+        <v>0.003374346962778258</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.001999044002790111</v>
+        <v>0.001992403096523055</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.001748923018483109</v>
+        <v>0.001771502742975724</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.004375095664718807</v>
+        <v>0.00443819234652839</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01143803916200115</v>
+        <v>0.01136764924973127</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.005699303193213012</v>
+        <v>0.005542059604704299</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.002985203895813196</v>
+        <v>0.002899132637478195</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.008190732756807503</v>
+        <v>0.008068826524138583</v>
       </c>
     </row>
     <row r="18">
@@ -1288,40 +1288,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02838352985345925</v>
+        <v>0.02817782508437147</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0157710683641395</v>
+        <v>0.0158091759976612</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.00894913751301122</v>
+        <v>0.009663680525689319</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01923439006889795</v>
+        <v>0.02010509638929386</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.008790925668271667</v>
+        <v>0.00868763435657966</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.006377387037827121</v>
+        <v>0.006197378763075197</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.005528450185044166</v>
+        <v>0.005847734105366639</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.008952578667106937</v>
+        <v>0.009150096385216818</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0170756831652421</v>
+        <v>0.01731917733849518</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.00988962613525495</v>
+        <v>0.00972804467132939</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.006397417982883231</v>
+        <v>0.006453007832955037</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01283934976908071</v>
+        <v>0.01293693420369129</v>
       </c>
     </row>
     <row r="19">
@@ -1592,10 +1592,10 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1805</v>
+        <v>1809</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2949</v>
+        <v>3157</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -1604,26 +1604,26 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4201</v>
+        <v>3999</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2982</v>
+        <v>2870</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1837</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="7">
@@ -1634,38 +1634,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10505</v>
+        <v>10618</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16044</v>
+        <v>16519</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4959</v>
+        <v>5900</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9838</v>
+        <v>10636</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9840</v>
+        <v>10049</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>6683</v>
+        <v>6533</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>6056</v>
+        <v>6108</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>16576</v>
+        <v>17073</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>16918</v>
+        <v>16305</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>7928</v>
+        <v>7661</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>12052</v>
+        <v>11456</v>
       </c>
     </row>
     <row r="8">
@@ -1768,40 +1768,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>20292</v>
+        <v>19729</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2889</v>
+        <v>2932</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3250</v>
+        <v>3199</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>965</v>
+        <v>33</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2775</v>
+        <v>2881</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3268</v>
+        <v>2869</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>22960</v>
+        <v>22317</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>5852</v>
+        <v>5004</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3792</v>
+        <v>3782</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>8449</v>
+        <v>8109</v>
       </c>
     </row>
     <row r="11">
@@ -1812,40 +1812,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>41676</v>
+        <v>41505</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13872</v>
+        <v>13454</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5633</v>
+        <v>5684</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>15832</v>
+        <v>15290</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>8585</v>
+        <v>8593</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>9685</v>
+        <v>9913</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>13426</v>
+        <v>13430</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>10744</v>
+        <v>11089</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>47034</v>
+        <v>46630</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>18943</v>
+        <v>18434</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>15257</v>
+        <v>14712</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>22075</v>
+        <v>22190</v>
       </c>
     </row>
     <row r="12">
@@ -1948,40 +1948,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14216</v>
+        <v>13154</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9713</v>
+        <v>10004</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4123</v>
+        <v>4344</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7336</v>
+        <v>7772</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1975</v>
+        <v>1906</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2899</v>
+        <v>2927</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3578</v>
+        <v>3791</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>17772</v>
+        <v>17619</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>14534</v>
+        <v>14555</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>6312</v>
+        <v>6961</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>13782</v>
+        <v>13664</v>
       </c>
     </row>
     <row r="15">
@@ -1992,40 +1992,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>32790</v>
+        <v>31241</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25576</v>
+        <v>27515</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20117</v>
+        <v>20169</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>25984</v>
+        <v>26199</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12173</v>
+        <v>11429</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>13097</v>
+        <v>13090</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9135</v>
+        <v>8570</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>12702</v>
+        <v>12337</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>39100</v>
+        <v>39074</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>33727</v>
+        <v>33480</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>23636</v>
+        <v>24168</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>34408</v>
+        <v>34156</v>
       </c>
     </row>
     <row r="16">
@@ -2128,38 +2128,38 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10318</v>
+        <v>10497</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2981</v>
+        <v>2933</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2533</v>
+        <v>2512</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>15318</v>
+        <v>16000</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1946</v>
+        <v>1957</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>4105</v>
+        <v>3895</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>13965</v>
+        <v>14583</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>5021</v>
+        <v>5041</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2704</v>
+        <v>2839</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>22046</v>
+        <v>22795</v>
       </c>
     </row>
     <row r="19">
@@ -2170,38 +2170,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>28241</v>
+        <v>27447</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>17868</v>
+        <v>17741</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>15315</v>
+        <v>14892</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>37457</v>
+        <v>37648</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11261</v>
+        <v>12074</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>7874</v>
+        <v>7861</v>
       </c>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>16364</v>
+        <v>15697</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>34383</v>
+        <v>33929</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>19790</v>
+        <v>19610</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>15366</v>
+        <v>15623</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>45720</v>
+        <v>47782</v>
       </c>
     </row>
     <row r="20">
@@ -2304,40 +2304,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>56830</v>
+        <v>56940</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>27644</v>
+        <v>27126</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10694</v>
+        <v>11449</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>36498</v>
+        <v>36180</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>10917</v>
+        <v>11179</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>7082</v>
+        <v>7059</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>6158</v>
+        <v>6237</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>16164</v>
+        <v>16398</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>74775</v>
+        <v>74314</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>39615</v>
+        <v>38522</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>20548</v>
+        <v>19956</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>58776</v>
+        <v>57901</v>
       </c>
     </row>
     <row r="23">
@@ -2348,40 +2348,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>91520</v>
+        <v>90857</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>53750</v>
+        <v>53880</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>30090</v>
+        <v>32493</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>66960</v>
+        <v>69992</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>29124</v>
+        <v>28782</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>22593</v>
+        <v>21956</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>19466</v>
+        <v>20590</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>33077</v>
+        <v>33806</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>111630</v>
+        <v>113222</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>68742</v>
+        <v>67619</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>44036</v>
+        <v>44418</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>92134</v>
+        <v>92835</v>
       </c>
     </row>
     <row r="24">
